--- a/data/trans_orig/P36B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67BB5A18-CB0D-417B-B74C-5CD1B009D523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0764B0-B12A-4275-BE52-BFC44EE8043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7F20D7C-D322-4D66-BE52-00AD49BAC99D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A2B78A6-54E6-4322-9DFD-9DB8B7E08E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="701">
   <si>
     <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -95,1993 +95,1999 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
   </si>
   <si>
     <t>4,24%</t>
@@ -2547,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7B304-B3DD-44B8-8C08-FA1402AF9100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7015E-91FE-4317-8B99-2B45C54972CC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3015,7 +3021,7 @@
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>3907</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3045,13 +3051,13 @@
         <v>6470</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -3060,13 +3066,13 @@
         <v>10378</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3087,13 @@
         <v>9403</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -3096,13 +3102,13 @@
         <v>18921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -3111,13 +3117,13 @@
         <v>28324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3138,13 @@
         <v>23402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3147,13 +3153,13 @@
         <v>28675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3162,13 +3168,13 @@
         <v>52077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3189,13 @@
         <v>541941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -3198,13 +3204,13 @@
         <v>518394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1054</v>
@@ -3213,13 +3219,13 @@
         <v>1060336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3281,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3287,13 +3293,13 @@
         <v>3252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3302,10 +3308,10 @@
         <v>12952</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
@@ -3317,10 +3323,10 @@
         <v>16204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -3344,7 +3350,7 @@
         <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3353,13 +3359,13 @@
         <v>13184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3368,7 +3374,7 @@
         <v>19425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>102</v>
@@ -3404,13 +3410,13 @@
         <v>25002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3419,13 +3425,13 @@
         <v>41412</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3446,13 @@
         <v>38593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -3455,13 +3461,13 @@
         <v>64659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -3470,13 +3476,13 @@
         <v>103251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3497,13 @@
         <v>897304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>799</v>
@@ -3506,13 +3512,13 @@
         <v>851537</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>1634</v>
@@ -3521,13 +3527,13 @@
         <v>1748841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,10 +3604,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3610,13 +3616,13 @@
         <v>8228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -3625,13 +3631,13 @@
         <v>20477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3673,7 @@
         <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3676,13 +3682,13 @@
         <v>13695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3703,13 @@
         <v>27537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -3712,13 +3718,13 @@
         <v>38848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -3727,7 +3733,7 @@
         <v>66385</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>149</v>
@@ -3754,7 +3760,7 @@
         <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -3763,13 +3769,13 @@
         <v>52994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -3778,13 +3784,13 @@
         <v>95208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3805,13 @@
         <v>590324</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>583</v>
@@ -3814,13 +3820,13 @@
         <v>576260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>1138</v>
@@ -3829,13 +3835,13 @@
         <v>1166584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,7 +3897,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3903,13 +3909,13 @@
         <v>6554</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3918,13 +3924,13 @@
         <v>14463</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3933,13 +3939,13 @@
         <v>21018</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3966,7 @@
         <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3969,13 +3975,13 @@
         <v>14082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3984,13 +3990,13 @@
         <v>19231</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4011,13 @@
         <v>28050</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -4020,13 +4026,13 @@
         <v>41611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -4035,13 +4041,13 @@
         <v>69661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>88246</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7">
         <v>80</v>
@@ -4071,13 +4077,13 @@
         <v>84040</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
         <v>173</v>
@@ -4086,13 +4092,13 @@
         <v>172286</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4113,13 @@
         <v>814223</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>850</v>
@@ -4122,13 +4128,13 @@
         <v>884416</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>1711</v>
@@ -4137,13 +4143,13 @@
         <v>1698639</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>22056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -4226,13 +4232,13 @@
         <v>38778</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="M34" s="7">
         <v>57</v>
@@ -4244,10 +4250,10 @@
         <v>136</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4268,13 @@
         <v>21481</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -4277,13 +4283,13 @@
         <v>42879</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -4292,13 +4298,13 @@
         <v>64360</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,16 +4316,16 @@
         <v>77</v>
       </c>
       <c r="D36" s="7">
-        <v>81401</v>
+        <v>81400</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>128</v>
@@ -4328,13 +4334,13 @@
         <v>127895</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>205</v>
@@ -4343,13 +4349,13 @@
         <v>209296</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4370,13 @@
         <v>194512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>226</v>
@@ -4379,13 +4385,13 @@
         <v>231994</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>424</v>
@@ -4394,13 +4400,13 @@
         <v>426506</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,16 +4418,16 @@
         <v>2897</v>
       </c>
       <c r="D38" s="7">
-        <v>2957094</v>
+        <v>2957093</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>2863</v>
@@ -4430,13 +4436,13 @@
         <v>2936592</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>5760</v>
@@ -4445,13 +4451,13 @@
         <v>5893685</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,7 +4469,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>46</v>
@@ -4507,7 +4513,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4528,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05749881-135E-4C29-889D-D13EDADB4DBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D5F11-3D2D-4054-9BD8-9920E6BEC57F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4545,7 +4551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4652,13 +4658,13 @@
         <v>1874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4667,13 +4673,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4682,13 +4688,13 @@
         <v>2846</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4724,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4739,7 +4745,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4769,13 +4775,13 @@
         <v>5043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4784,13 +4790,13 @@
         <v>5879</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4817,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4820,13 +4826,13 @@
         <v>5004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4835,13 +4841,13 @@
         <v>5751</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4862,13 @@
         <v>112307</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -4871,13 +4877,13 @@
         <v>100886</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>208</v>
@@ -4886,13 +4892,13 @@
         <v>213193</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4966,13 @@
         <v>2079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4975,13 +4981,13 @@
         <v>3936</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4990,13 +4996,13 @@
         <v>6016</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5026,13 +5032,13 @@
         <v>2902</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5041,13 +5047,13 @@
         <v>2902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5068,13 @@
         <v>5599</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -5077,13 +5083,13 @@
         <v>20865</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -5092,10 +5098,10 @@
         <v>26464</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>283</v>
@@ -5128,13 +5134,13 @@
         <v>32046</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -5146,10 +5152,10 @@
         <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,10 +5173,10 @@
         <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -5179,13 +5185,13 @@
         <v>525397</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -5194,10 +5200,10 @@
         <v>1079669</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>298</v>
@@ -5256,7 +5262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5268,13 +5274,13 @@
         <v>4156</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5283,13 +5289,13 @@
         <v>4250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5298,13 +5304,13 @@
         <v>8406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5325,13 @@
         <v>998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5337,10 +5343,10 @@
         <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5349,13 +5355,13 @@
         <v>12037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5376,13 @@
         <v>19269</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -5385,13 +5391,13 @@
         <v>24413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -5400,13 +5406,13 @@
         <v>43682</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5427,13 @@
         <v>22814</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5436,13 +5442,13 @@
         <v>43488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -5451,13 +5457,13 @@
         <v>66303</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5478,13 @@
         <v>969681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>865</v>
@@ -5487,13 +5493,13 @@
         <v>948993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>1757</v>
@@ -5502,13 +5508,13 @@
         <v>1918674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5582,13 @@
         <v>6019</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5591,13 +5597,13 @@
         <v>9185</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5606,13 +5612,13 @@
         <v>15204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5633,13 @@
         <v>5108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>52</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5642,13 +5648,13 @@
         <v>7600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -5657,13 +5663,13 @@
         <v>12708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5684,13 @@
         <v>13444</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -5693,13 +5699,13 @@
         <v>29136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -5708,13 +5714,13 @@
         <v>42580</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5735,13 @@
         <v>44787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5744,13 +5750,13 @@
         <v>54790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -5759,13 +5765,13 @@
         <v>99577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5786,13 @@
         <v>688265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>612</v>
@@ -5795,13 +5801,13 @@
         <v>675471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>1241</v>
@@ -5810,13 +5816,13 @@
         <v>1363736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5887,10 +5893,10 @@
         <v>19</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -5899,13 +5905,13 @@
         <v>14268</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -5914,10 +5920,10 @@
         <v>21055</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>33</v>
@@ -5935,13 +5941,13 @@
         <v>6234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>363</v>
+        <v>95</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5950,13 +5956,13 @@
         <v>12929</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>67</v>
+        <v>354</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -5965,13 +5971,13 @@
         <v>19163</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5992,13 @@
         <v>27389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -6001,13 +6007,13 @@
         <v>42874</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -6016,13 +6022,13 @@
         <v>70263</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6043,13 @@
         <v>36118</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -6052,13 +6058,13 @@
         <v>52129</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M31" s="7">
         <v>85</v>
@@ -6067,13 +6073,13 @@
         <v>88248</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6094,13 @@
         <v>871210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>888</v>
@@ -6103,13 +6109,13 @@
         <v>929700</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M32" s="7">
         <v>1725</v>
@@ -6118,13 +6124,13 @@
         <v>1800911</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6198,13 @@
         <v>20914</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -6207,13 +6213,13 @@
         <v>32612</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>379</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
       <c r="M34" s="7">
         <v>49</v>
@@ -6222,13 +6228,13 @@
         <v>53527</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>390</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6249,13 @@
         <v>12340</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
@@ -6258,13 +6264,13 @@
         <v>34470</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="M35" s="7">
         <v>42</v>
@@ -6273,13 +6279,13 @@
         <v>46810</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6300,13 @@
         <v>66538</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="H36" s="7">
         <v>112</v>
@@ -6309,13 +6315,13 @@
         <v>122331</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -6324,13 +6330,13 @@
         <v>188868</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>395</v>
+        <v>285</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6351,13 @@
         <v>129051</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H37" s="7">
         <v>173</v>
@@ -6360,13 +6366,13 @@
         <v>187457</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>402</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>291</v>
@@ -6375,13 +6381,13 @@
         <v>316508</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>366</v>
+        <v>143</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>3195737</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H38" s="7">
         <v>2950</v>
@@ -6411,13 +6417,13 @@
         <v>3180447</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="M38" s="7">
         <v>5947</v>
@@ -6426,13 +6432,13 @@
         <v>6376185</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6494,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6509,7 +6515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DA6007-501C-4B4B-AF79-C559A832585D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CBC7C8-DFBB-4F2D-9A6A-C182DF0C06FD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6526,7 +6532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6639,7 +6645,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6648,13 +6654,13 @@
         <v>1842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>404</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6663,13 +6669,13 @@
         <v>1842</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6690,13 @@
         <v>1070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>379</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6705,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6714,13 +6720,13 @@
         <v>1070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6741,13 @@
         <v>2883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6750,13 +6756,13 @@
         <v>1759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6765,13 +6771,13 @@
         <v>4643</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>64</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6798,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6801,13 +6807,13 @@
         <v>1837</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6816,13 +6822,13 @@
         <v>1837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6843,13 @@
         <v>112593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -6852,13 +6858,13 @@
         <v>107922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -6867,13 +6873,13 @@
         <v>220515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6947,13 @@
         <v>4098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>425</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6956,13 +6962,13 @@
         <v>5912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6971,13 +6977,13 @@
         <v>10010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6998,13 @@
         <v>991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7007,13 +7013,13 @@
         <v>5907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -7022,13 +7028,13 @@
         <v>6898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,10 +7052,10 @@
         <v>95</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -7058,13 +7064,13 @@
         <v>9433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -7073,13 +7079,13 @@
         <v>17102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7100,13 @@
         <v>18643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -7109,13 +7115,13 @@
         <v>13995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -7124,13 +7130,13 @@
         <v>32638</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7151,13 @@
         <v>524626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -7160,13 +7166,13 @@
         <v>524232</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>1025</v>
@@ -7175,13 +7181,13 @@
         <v>1048857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,7 +7243,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7249,13 +7255,13 @@
         <v>8181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7264,13 +7270,13 @@
         <v>9357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7279,13 +7285,13 @@
         <v>17538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7306,13 @@
         <v>8181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -7315,13 +7321,13 @@
         <v>9689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>455</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -7330,13 +7336,13 @@
         <v>17870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7357,13 @@
         <v>19964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -7366,13 +7372,13 @@
         <v>23874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -7381,13 +7387,13 @@
         <v>43838</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>138</v>
+        <v>459</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7408,13 @@
         <v>43481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -7417,13 +7423,13 @@
         <v>36523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -7432,13 +7438,13 @@
         <v>80004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>466</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7459,13 @@
         <v>941758</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>900</v>
@@ -7468,13 +7474,13 @@
         <v>962474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M20" s="7">
         <v>1778</v>
@@ -7483,13 +7489,13 @@
         <v>1904232</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7563,13 @@
         <v>4487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7572,13 +7578,13 @@
         <v>3334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>475</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>476</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -7587,13 +7593,13 @@
         <v>7820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7614,13 @@
         <v>9678</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -7623,13 +7629,13 @@
         <v>3851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -7638,13 +7644,13 @@
         <v>13529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>17</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7665,13 @@
         <v>24559</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -7674,13 +7680,13 @@
         <v>31946</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>478</v>
+        <v>387</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -7689,13 +7695,13 @@
         <v>56505</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>225</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7716,13 @@
         <v>76368</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -7725,13 +7731,13 @@
         <v>55834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -7740,13 +7746,13 @@
         <v>132203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7767,13 @@
         <v>642330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>644</v>
@@ -7776,13 +7782,13 @@
         <v>689043</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="M26" s="7">
         <v>1234</v>
@@ -7791,13 +7797,13 @@
         <v>1331372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,7 +7859,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7865,13 +7871,13 @@
         <v>6398</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>499</v>
+        <v>305</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7880,13 +7886,13 @@
         <v>12757</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -7895,13 +7901,13 @@
         <v>19156</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>133</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,13 +7922,13 @@
         <v>1876</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -7931,13 +7937,13 @@
         <v>9319</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>23</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -7946,13 +7952,13 @@
         <v>11195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>501</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7973,13 @@
         <v>14705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>505</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>432</v>
+        <v>258</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>107</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -7982,13 +7988,13 @@
         <v>13332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -7997,13 +8003,13 @@
         <v>28037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>315</v>
+        <v>455</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8024,13 @@
         <v>37673</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>505</v>
+        <v>358</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -8033,13 +8039,13 @@
         <v>33123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>312</v>
+        <v>510</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -8048,13 +8054,13 @@
         <v>70796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>254</v>
+        <v>512</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>509</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,13 +8075,13 @@
         <v>876050</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H32" s="7">
         <v>899</v>
@@ -8084,13 +8090,13 @@
         <v>974135</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M32" s="7">
         <v>1772</v>
@@ -8099,13 +8105,13 @@
         <v>1850186</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8179,13 @@
         <v>23164</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>476</v>
+        <v>302</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -8188,13 +8194,13 @@
         <v>33202</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>519</v>
+        <v>130</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -8203,13 +8209,13 @@
         <v>56366</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8230,13 @@
         <v>21796</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>451</v>
+        <v>299</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -8239,13 +8245,13 @@
         <v>28766</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>457</v>
+        <v>49</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -8254,13 +8260,13 @@
         <v>50562</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8281,13 @@
         <v>69780</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>63</v>
+        <v>451</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H36" s="7">
         <v>76</v>
@@ -8290,13 +8296,13 @@
         <v>80344</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>525</v>
+        <v>333</v>
       </c>
       <c r="M36" s="7">
         <v>140</v>
@@ -8305,13 +8311,13 @@
         <v>150125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,13 +8332,13 @@
         <v>176165</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>527</v>
+        <v>439</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H37" s="7">
         <v>132</v>
@@ -8341,13 +8347,13 @@
         <v>141313</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M37" s="7">
         <v>295</v>
@@ -8356,13 +8362,13 @@
         <v>317477</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>399</v>
+        <v>536</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>403</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,13 +8383,13 @@
         <v>3097357</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>534</v>
+        <v>374</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>421</v>
+        <v>538</v>
       </c>
       <c r="H38" s="7">
         <v>3069</v>
@@ -8392,28 +8398,28 @@
         <v>3257805</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M38" s="7">
         <v>6027</v>
       </c>
       <c r="N38" s="7">
-        <v>6355162</v>
+        <v>6355163</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,7 +8461,7 @@
         <v>6560</v>
       </c>
       <c r="N39" s="7">
-        <v>6929691</v>
+        <v>6929692</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>46</v>
@@ -8469,7 +8475,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8490,7 +8496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AF9FA8-057A-4163-B829-1E06F684CB36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6B9225-03DA-48B1-924F-BFE94733E8C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8507,7 +8513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8629,13 +8635,13 @@
         <v>2296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -8644,13 +8650,13 @@
         <v>2296</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,13 +8671,13 @@
         <v>953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>455</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -8680,13 +8686,13 @@
         <v>2199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>536</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -8695,10 +8701,10 @@
         <v>3152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>544</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -8716,13 +8722,13 @@
         <v>7781</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -8731,13 +8737,13 @@
         <v>3163</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>132</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>286</v>
+        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -8746,13 +8752,13 @@
         <v>10944</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>547</v>
+        <v>412</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,13 +8773,13 @@
         <v>3204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>550</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>551</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -8782,13 +8788,13 @@
         <v>6541</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -8800,10 +8806,10 @@
         <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,13 +8824,13 @@
         <v>90044</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>560</v>
       </c>
       <c r="H8" s="7">
         <v>218</v>
@@ -8833,13 +8839,13 @@
         <v>116533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M8" s="7">
         <v>321</v>
@@ -8848,13 +8854,13 @@
         <v>206578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8925,10 +8931,10 @@
         <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -8937,13 +8943,13 @@
         <v>6463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>565</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -8952,13 +8958,13 @@
         <v>9514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8973,10 +8979,10 @@
         <v>1882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>139</v>
@@ -8988,13 +8994,13 @@
         <v>5843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>565</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -9003,13 +9009,13 @@
         <v>7725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,13 +9030,13 @@
         <v>18533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>570</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>571</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -9039,7 +9045,7 @@
         <v>27663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>531</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>572</v>
@@ -9054,7 +9060,7 @@
         <v>46196</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>574</v>
@@ -9078,10 +9084,10 @@
         <v>576</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -9090,13 +9096,13 @@
         <v>59577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>579</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -9105,13 +9111,13 @@
         <v>107665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,13 +9132,13 @@
         <v>478269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H14" s="7">
         <v>809</v>
@@ -9141,13 +9147,13 @@
         <v>493010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M14" s="7">
         <v>1333</v>
@@ -9156,13 +9162,13 @@
         <v>971278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9218,7 +9224,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9230,13 +9236,13 @@
         <v>9005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -9245,13 +9251,13 @@
         <v>12703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -9260,13 +9266,13 @@
         <v>21707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9281,13 +9287,13 @@
         <v>9233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>594</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -9296,13 +9302,13 @@
         <v>15624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -9311,13 +9317,13 @@
         <v>24857</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>594</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9332,13 +9338,13 @@
         <v>26734</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>343</v>
+        <v>597</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -9347,13 +9353,13 @@
         <v>28646</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>395</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>183</v>
+        <v>598</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -9362,13 +9368,13 @@
         <v>55380</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>570</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9383,13 +9389,13 @@
         <v>100695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -9398,13 +9404,13 @@
         <v>125555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="M19" s="7">
         <v>301</v>
@@ -9413,13 +9419,13 @@
         <v>226250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,13 +9440,13 @@
         <v>893581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H20" s="7">
         <v>1242</v>
@@ -9449,13 +9455,13 @@
         <v>876146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M20" s="7">
         <v>2059</v>
@@ -9464,13 +9470,13 @@
         <v>1769727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9538,13 +9544,13 @@
         <v>9315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -9553,13 +9559,13 @@
         <v>7548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -9568,13 +9574,13 @@
         <v>16863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9589,13 +9595,13 @@
         <v>5670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>621</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -9604,13 +9610,13 @@
         <v>10222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -9619,13 +9625,13 @@
         <v>15892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9640,13 +9646,13 @@
         <v>45273</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -9655,13 +9661,13 @@
         <v>58910</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>114</v>
@@ -9670,13 +9676,13 @@
         <v>104183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,13 +9697,13 @@
         <v>120862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H25" s="7">
         <v>158</v>
@@ -9706,13 +9712,13 @@
         <v>115921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="M25" s="7">
         <v>267</v>
@@ -9721,13 +9727,13 @@
         <v>236783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9748,13 @@
         <v>547651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <v>789</v>
@@ -9757,13 +9763,13 @@
         <v>681771</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="M26" s="7">
         <v>1304</v>
@@ -9772,13 +9778,13 @@
         <v>1229421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,7 +9840,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9846,13 +9852,13 @@
         <v>16740</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>650</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -9861,13 +9867,13 @@
         <v>25250</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -9876,13 +9882,13 @@
         <v>41990</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9897,13 +9903,13 @@
         <v>3955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -9912,13 +9918,13 @@
         <v>25957</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -9927,13 +9933,13 @@
         <v>29912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,13 +9954,13 @@
         <v>39744</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>652</v>
+        <v>442</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -9963,13 +9969,13 @@
         <v>48607</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M30" s="7">
         <v>101</v>
@@ -9978,13 +9984,13 @@
         <v>88351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +10005,13 @@
         <v>97463</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -10014,13 +10020,13 @@
         <v>116900</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>258</v>
+        <v>666</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="M31" s="7">
         <v>270</v>
@@ -10029,13 +10035,13 @@
         <v>214362</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10056,13 @@
         <v>807502</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>667</v>
+        <v>167</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="H32" s="7">
         <v>1286</v>
@@ -10065,13 +10071,13 @@
         <v>932803</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="M32" s="7">
         <v>2128</v>
@@ -10080,13 +10086,13 @@
         <v>1740304</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10154,13 +10160,13 @@
         <v>38110</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>676</v>
+        <v>526</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>451</v>
       </c>
       <c r="H34" s="7">
         <v>69</v>
@@ -10169,13 +10175,13 @@
         <v>54260</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>271</v>
+        <v>480</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>677</v>
+        <v>477</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M34" s="7">
         <v>105</v>
@@ -10184,13 +10190,13 @@
         <v>92370</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>677</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10211,13 @@
         <v>21693</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>474</v>
+        <v>140</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="H35" s="7">
         <v>63</v>
@@ -10220,13 +10226,13 @@
         <v>59844</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>212</v>
+        <v>505</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M35" s="7">
         <v>90</v>
@@ -10235,13 +10241,13 @@
         <v>81537</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>676</v>
+        <v>526</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,13 +10262,13 @@
         <v>138065</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H36" s="7">
         <v>234</v>
@@ -10271,13 +10277,13 @@
         <v>166989</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>184</v>
+        <v>681</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>680</v>
+        <v>393</v>
       </c>
       <c r="M36" s="7">
         <v>367</v>
@@ -10286,13 +10292,13 @@
         <v>305054</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10307,13 +10313,13 @@
         <v>370312</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H37" s="7">
         <v>651</v>
@@ -10322,13 +10328,13 @@
         <v>424493</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M37" s="7">
         <v>1030</v>
@@ -10337,13 +10343,13 @@
         <v>794806</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10358,13 +10364,13 @@
         <v>2817048</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H38" s="7">
         <v>4344</v>
@@ -10373,13 +10379,13 @@
         <v>3100261</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>667</v>
+        <v>167</v>
       </c>
       <c r="M38" s="7">
         <v>7145</v>
@@ -10388,13 +10394,13 @@
         <v>5917308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10450,7 +10456,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0764B0-B12A-4275-BE52-BFC44EE8043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{450DCCCC-0FD5-41DC-8222-5701A4B1D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A2B78A6-54E6-4322-9DFD-9DB8B7E08E2A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AED26C43-C185-42B9-8CAE-B2D66C9FF9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="708">
   <si>
     <t>Población según la frecuencia de consumo de pan, cereales en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,2053 +95,2074 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>5,35%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7015E-91FE-4317-8B99-2B45C54972CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A586E8D-B99F-47D5-AD45-4C7A7DC4D3DC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3021,7 +3042,7 @@
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3108,13 @@
         <v>9403</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -3102,13 +3123,13 @@
         <v>18921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -3117,13 +3138,13 @@
         <v>28324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3159,13 @@
         <v>23402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3153,13 +3174,13 @@
         <v>28675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3168,13 +3189,13 @@
         <v>52077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3210,13 @@
         <v>541941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -3204,13 +3225,13 @@
         <v>518394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1054</v>
@@ -3219,13 +3240,13 @@
         <v>1060336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3293,13 +3314,13 @@
         <v>3252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3308,13 +3329,13 @@
         <v>12952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3323,13 +3344,13 @@
         <v>16204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3365,13 @@
         <v>6241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3359,13 +3380,13 @@
         <v>13184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3374,13 +3395,13 @@
         <v>19425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,10 +3449,10 @@
         <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3467,13 @@
         <v>38593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -3461,13 +3482,13 @@
         <v>64659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -3476,7 +3497,7 @@
         <v>103251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>119</v>
@@ -3533,7 +3554,7 @@
         <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3604,10 +3625,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3616,13 +3637,13 @@
         <v>8228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -3631,13 +3652,13 @@
         <v>20477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3673,13 @@
         <v>6184</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3667,13 +3688,13 @@
         <v>7511</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3682,13 +3703,13 @@
         <v>13695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3724,13 @@
         <v>27537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -3718,13 +3739,13 @@
         <v>38848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -3733,13 +3754,13 @@
         <v>66385</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3775,13 @@
         <v>42214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -3769,13 +3790,13 @@
         <v>52994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -3784,13 +3805,13 @@
         <v>95208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3826,13 @@
         <v>590324</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>583</v>
@@ -3820,13 +3841,13 @@
         <v>576260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1138</v>
@@ -3835,13 +3856,13 @@
         <v>1166584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3918,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3909,13 +3930,13 @@
         <v>6554</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3924,13 +3945,13 @@
         <v>14463</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3939,13 +3960,13 @@
         <v>21018</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3981,13 @@
         <v>5149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3975,13 +3996,13 @@
         <v>14082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3990,13 +4011,13 @@
         <v>19231</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4032,13 @@
         <v>28050</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -4026,13 +4047,13 @@
         <v>41611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -4041,13 +4062,13 @@
         <v>69661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4083,13 @@
         <v>88246</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>80</v>
@@ -4077,13 +4098,13 @@
         <v>84040</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>173</v>
@@ -4092,13 +4113,13 @@
         <v>172286</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4134,13 @@
         <v>814223</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>850</v>
@@ -4128,13 +4149,13 @@
         <v>884416</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>1711</v>
@@ -4143,13 +4164,13 @@
         <v>1698639</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4238,13 @@
         <v>22056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -4232,13 +4253,13 @@
         <v>38778</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>57</v>
@@ -4247,13 +4268,13 @@
         <v>60834</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4289,13 @@
         <v>21481</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -4283,13 +4304,13 @@
         <v>42879</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -4298,13 +4319,13 @@
         <v>64360</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,16 +4337,16 @@
         <v>77</v>
       </c>
       <c r="D36" s="7">
-        <v>81400</v>
+        <v>81401</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>128</v>
@@ -4334,13 +4355,13 @@
         <v>127895</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>205</v>
@@ -4349,13 +4370,13 @@
         <v>209296</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4391,13 @@
         <v>194512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>226</v>
@@ -4385,13 +4406,13 @@
         <v>231994</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>424</v>
@@ -4400,13 +4421,13 @@
         <v>426506</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,16 +4439,16 @@
         <v>2897</v>
       </c>
       <c r="D38" s="7">
-        <v>2957093</v>
+        <v>2957094</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>2863</v>
@@ -4436,13 +4457,13 @@
         <v>2936592</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>5760</v>
@@ -4451,13 +4472,13 @@
         <v>5893685</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4490,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>46</v>
@@ -4513,7 +4534,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D5F11-3D2D-4054-9BD8-9920E6BEC57F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9309483-33DF-4D93-84C6-0E10EC683C38}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4658,13 +4679,13 @@
         <v>1874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4673,13 +4694,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4688,13 +4709,13 @@
         <v>2846</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4730,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4745,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4787,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4775,13 +4796,13 @@
         <v>5043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4793,10 +4814,10 @@
         <v>107</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4832,13 @@
         <v>747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4826,13 +4847,13 @@
         <v>5004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4841,13 +4862,13 @@
         <v>5751</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4883,13 @@
         <v>112307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -4877,13 +4898,13 @@
         <v>100886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>208</v>
@@ -4892,13 +4913,13 @@
         <v>213193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4987,13 @@
         <v>2079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4981,13 +5002,13 @@
         <v>3936</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4996,13 +5017,13 @@
         <v>6016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5032,13 +5053,13 @@
         <v>2902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5047,13 +5068,13 @@
         <v>2902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5089,13 @@
         <v>5599</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -5083,13 +5104,13 @@
         <v>20865</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -5098,13 +5119,13 @@
         <v>26464</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5140,13 @@
         <v>24584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5134,13 +5155,13 @@
         <v>32046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -5149,13 +5170,13 @@
         <v>56629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5191,13 @@
         <v>554273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -5185,13 +5206,13 @@
         <v>525397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -5200,13 +5221,13 @@
         <v>1079669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,7 +5283,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5274,13 +5295,13 @@
         <v>4156</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5289,13 +5310,13 @@
         <v>4250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5304,13 +5325,13 @@
         <v>8406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5346,13 @@
         <v>998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5340,13 +5361,13 @@
         <v>11039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5355,13 +5376,13 @@
         <v>12037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5397,13 @@
         <v>19269</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -5391,13 +5412,13 @@
         <v>24413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -5406,13 +5427,13 @@
         <v>43682</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5448,13 @@
         <v>22814</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5442,13 +5463,13 @@
         <v>43488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -5457,13 +5478,13 @@
         <v>66303</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5499,13 @@
         <v>969681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>865</v>
@@ -5493,13 +5514,13 @@
         <v>948993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>1757</v>
@@ -5508,13 +5529,13 @@
         <v>1918674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,7 +5591,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5582,13 +5603,13 @@
         <v>6019</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5597,13 +5618,13 @@
         <v>9185</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5612,13 +5633,13 @@
         <v>15204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5654,13 @@
         <v>5108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5648,13 +5669,13 @@
         <v>7600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -5663,13 +5684,13 @@
         <v>12708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5705,13 @@
         <v>13444</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -5699,13 +5720,13 @@
         <v>29136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -5714,13 +5735,13 @@
         <v>42580</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5756,13 @@
         <v>44787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5750,13 +5771,13 @@
         <v>54790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>87</v>
@@ -5765,13 +5786,13 @@
         <v>99577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5807,13 @@
         <v>688265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>612</v>
@@ -5801,13 +5822,13 @@
         <v>675471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1241</v>
@@ -5816,13 +5837,13 @@
         <v>1363736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5899,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5893,10 +5914,10 @@
         <v>19</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -5905,13 +5926,13 @@
         <v>14268</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -5920,13 +5941,13 @@
         <v>21055</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5962,13 @@
         <v>6234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>95</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5956,13 +5977,13 @@
         <v>12929</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -5971,13 +5992,13 @@
         <v>19163</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6013,13 @@
         <v>27389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -6007,13 +6028,13 @@
         <v>42874</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -6022,13 +6043,13 @@
         <v>70263</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6064,13 @@
         <v>36118</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -6058,13 +6079,13 @@
         <v>52129</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="M31" s="7">
         <v>85</v>
@@ -6073,13 +6094,13 @@
         <v>88248</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>368</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6115,13 @@
         <v>871210</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="H32" s="7">
         <v>888</v>
@@ -6109,13 +6130,13 @@
         <v>929700</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="M32" s="7">
         <v>1725</v>
@@ -6124,13 +6145,13 @@
         <v>1800911</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6219,13 @@
         <v>20914</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -6213,13 +6234,13 @@
         <v>32612</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="M34" s="7">
         <v>49</v>
@@ -6228,13 +6249,13 @@
         <v>53527</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>179</v>
+        <v>311</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6270,13 @@
         <v>12340</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>137</v>
+        <v>390</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>96</v>
+        <v>365</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
@@ -6264,13 +6285,13 @@
         <v>34470</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>95</v>
+        <v>393</v>
       </c>
       <c r="M35" s="7">
         <v>42</v>
@@ -6279,13 +6300,13 @@
         <v>46810</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6321,13 @@
         <v>66538</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H36" s="7">
         <v>112</v>
@@ -6315,13 +6336,13 @@
         <v>122331</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -6330,13 +6351,13 @@
         <v>188868</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>285</v>
+        <v>399</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6372,13 @@
         <v>129051</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>109</v>
+        <v>401</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>389</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="H37" s="7">
         <v>173</v>
@@ -6366,13 +6387,13 @@
         <v>187457</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>404</v>
       </c>
       <c r="M37" s="7">
         <v>291</v>
@@ -6381,13 +6402,13 @@
         <v>316508</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>393</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6423,13 @@
         <v>3195737</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H38" s="7">
         <v>2950</v>
@@ -6417,13 +6438,13 @@
         <v>3180447</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M38" s="7">
         <v>5947</v>
@@ -6432,13 +6453,13 @@
         <v>6376185</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6515,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6515,7 +6536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CBC7C8-DFBB-4F2D-9A6A-C182DF0C06FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9324A91-046F-41E6-A2A6-3FE80707214F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6532,7 +6553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6645,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6654,13 +6675,13 @@
         <v>1842</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6669,13 +6690,13 @@
         <v>1842</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6711,13 @@
         <v>1070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6711,7 +6732,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6726,7 +6747,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6762,13 @@
         <v>2883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>409</v>
+        <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6756,13 +6777,13 @@
         <v>1759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6771,13 +6792,13 @@
         <v>4643</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
+        <v>422</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>413</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6807,13 +6828,13 @@
         <v>1837</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6822,13 +6843,13 @@
         <v>1837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>415</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6864,13 @@
         <v>112593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -6858,13 +6879,13 @@
         <v>107922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -6873,13 +6894,13 @@
         <v>220515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6968,13 @@
         <v>4098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6962,13 +6983,13 @@
         <v>5912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6980,10 +7001,10 @@
         <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +7019,13 @@
         <v>991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7013,13 +7034,13 @@
         <v>5907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -7028,13 +7049,13 @@
         <v>6898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7070,13 @@
         <v>7669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>439</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -7064,13 +7085,13 @@
         <v>9433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>309</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -7079,13 +7100,13 @@
         <v>17102</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7121,13 @@
         <v>18643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -7115,13 +7136,13 @@
         <v>13995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -7130,13 +7151,13 @@
         <v>32638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7172,13 @@
         <v>524626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -7166,13 +7187,13 @@
         <v>524232</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>1025</v>
@@ -7181,13 +7202,13 @@
         <v>1048857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,7 +7264,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7255,13 +7276,13 @@
         <v>8181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7273,10 +7294,10 @@
         <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7285,13 +7306,13 @@
         <v>17538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7327,13 @@
         <v>8181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -7321,13 +7342,13 @@
         <v>9689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -7336,13 +7357,13 @@
         <v>17870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>454</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7378,13 @@
         <v>19964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>215</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>132</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -7372,13 +7393,13 @@
         <v>23874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>458</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -7387,13 +7408,13 @@
         <v>43838</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7429,13 @@
         <v>43481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -7423,13 +7444,13 @@
         <v>36523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -7438,13 +7459,13 @@
         <v>80004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>466</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7480,13 @@
         <v>941758</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>900</v>
@@ -7474,13 +7495,13 @@
         <v>962474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>1778</v>
@@ -7489,13 +7510,13 @@
         <v>1904232</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,7 +7572,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7563,13 +7584,13 @@
         <v>4487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7578,13 +7599,13 @@
         <v>3334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -7593,13 +7614,13 @@
         <v>7820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>482</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7635,13 @@
         <v>9678</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -7629,13 +7650,13 @@
         <v>3851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>485</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -7644,13 +7665,13 @@
         <v>13529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7686,13 @@
         <v>24559</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>481</v>
+        <v>66</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -7680,13 +7701,13 @@
         <v>31946</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>387</v>
+        <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -7695,13 +7716,13 @@
         <v>56505</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,13 +7737,13 @@
         <v>76368</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -7731,13 +7752,13 @@
         <v>55834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>497</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -7746,13 +7767,13 @@
         <v>132203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,13 +7788,13 @@
         <v>642330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H26" s="7">
         <v>644</v>
@@ -7782,13 +7803,13 @@
         <v>689043</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M26" s="7">
         <v>1234</v>
@@ -7797,13 +7818,13 @@
         <v>1331372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,7 +7880,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7874,10 +7895,10 @@
         <v>54</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>510</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7886,13 +7907,13 @@
         <v>12757</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -7901,13 +7922,13 @@
         <v>19156</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,13 +7943,13 @@
         <v>1876</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -7937,13 +7958,13 @@
         <v>9319</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>303</v>
+        <v>514</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -7952,13 +7973,13 @@
         <v>11195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>504</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,13 +7994,13 @@
         <v>14705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -7988,13 +8009,13 @@
         <v>13332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -8003,13 +8024,13 @@
         <v>28037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>519</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>138</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +8045,13 @@
         <v>37673</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>358</v>
+        <v>114</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -8039,13 +8060,13 @@
         <v>33123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -8054,13 +8075,13 @@
         <v>70796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>362</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8096,13 @@
         <v>876050</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H32" s="7">
         <v>899</v>
@@ -8090,13 +8111,13 @@
         <v>974135</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="M32" s="7">
         <v>1772</v>
@@ -8105,13 +8126,13 @@
         <v>1850186</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,10 +8203,10 @@
         <v>54</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>523</v>
+        <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -8194,13 +8215,13 @@
         <v>33202</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>130</v>
+        <v>519</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>209</v>
+        <v>536</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>392</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -8209,13 +8230,13 @@
         <v>56366</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>525</v>
+        <v>63</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,13 +8251,13 @@
         <v>21796</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>299</v>
+        <v>537</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>538</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -8245,13 +8266,13 @@
         <v>28766</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>525</v>
+        <v>63</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -8260,13 +8281,13 @@
         <v>50562</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>527</v>
+        <v>94</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8302,13 @@
         <v>69780</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H36" s="7">
         <v>76</v>
@@ -8296,13 +8317,13 @@
         <v>80344</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>29</v>
+        <v>541</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="M36" s="7">
         <v>140</v>
@@ -8311,13 +8332,13 @@
         <v>150125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>542</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>530</v>
+        <v>368</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,13 +8353,13 @@
         <v>176165</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>439</v>
+        <v>543</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>132</v>
@@ -8347,13 +8368,13 @@
         <v>141313</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>295</v>
@@ -8362,13 +8383,13 @@
         <v>317477</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>357</v>
+        <v>550</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>116</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8404,13 @@
         <v>3097357</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>374</v>
+        <v>553</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="H38" s="7">
         <v>3069</v>
@@ -8398,28 +8419,28 @@
         <v>3257805</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="M38" s="7">
         <v>6027</v>
       </c>
       <c r="N38" s="7">
-        <v>6355163</v>
+        <v>6355162</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8461,7 +8482,7 @@
         <v>6560</v>
       </c>
       <c r="N39" s="7">
-        <v>6929692</v>
+        <v>6929691</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>46</v>
@@ -8475,7 +8496,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8496,7 +8517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6B9225-03DA-48B1-924F-BFE94733E8C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8D0515-69BC-4DBD-9F5F-028DED6BB68E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8513,7 +8534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8635,13 +8656,13 @@
         <v>2296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>546</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -8650,13 +8671,13 @@
         <v>2296</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>548</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8692,13 @@
         <v>953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -8686,13 +8707,13 @@
         <v>2199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -8704,10 +8725,10 @@
         <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8743,13 @@
         <v>7781</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>565</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -8737,13 +8758,13 @@
         <v>3163</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -8752,13 +8773,13 @@
         <v>10944</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8794,13 @@
         <v>3204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>570</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -8788,13 +8809,13 @@
         <v>6541</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>525</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>555</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -8803,13 +8824,13 @@
         <v>9745</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>557</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8845,13 @@
         <v>90044</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>558</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="H8" s="7">
         <v>218</v>
@@ -8839,13 +8860,13 @@
         <v>116533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>575</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="M8" s="7">
         <v>321</v>
@@ -8854,13 +8875,13 @@
         <v>206578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,13 +8949,13 @@
         <v>3051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>566</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -8943,13 +8964,13 @@
         <v>6463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>581</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -8958,13 +8979,13 @@
         <v>9514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>569</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8979,13 +9000,13 @@
         <v>1882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>584</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -8994,13 +9015,13 @@
         <v>5843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>568</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>585</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -9012,10 +9033,10 @@
         <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>537</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,13 +9051,13 @@
         <v>18533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>181</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -9045,13 +9066,13 @@
         <v>27663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="M12" s="7">
         <v>74</v>
@@ -9060,13 +9081,13 @@
         <v>46196</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9102,13 @@
         <v>48088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -9096,13 +9117,13 @@
         <v>59577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -9111,13 +9132,13 @@
         <v>107665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>583</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,13 +9153,13 @@
         <v>478269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="H14" s="7">
         <v>809</v>
@@ -9147,13 +9168,13 @@
         <v>493010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="M14" s="7">
         <v>1333</v>
@@ -9162,13 +9183,13 @@
         <v>971278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9224,7 +9245,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9236,13 +9257,13 @@
         <v>9005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -9251,13 +9272,13 @@
         <v>12703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>425</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>593</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -9266,13 +9287,13 @@
         <v>21707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9287,13 +9308,13 @@
         <v>9233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -9302,13 +9323,13 @@
         <v>15624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>569</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>486</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -9317,13 +9338,13 @@
         <v>24857</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9338,13 +9359,13 @@
         <v>26734</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>516</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -9353,13 +9374,13 @@
         <v>28646</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>285</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>598</v>
+        <v>460</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -9368,13 +9389,13 @@
         <v>55380</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>181</v>
+        <v>448</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>601</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9410,13 @@
         <v>100695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -9404,13 +9425,13 @@
         <v>125555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="M19" s="7">
         <v>301</v>
@@ -9419,13 +9440,13 @@
         <v>226250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9440,13 +9461,13 @@
         <v>893581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="H20" s="7">
         <v>1242</v>
@@ -9455,13 +9476,13 @@
         <v>876146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="M20" s="7">
         <v>2059</v>
@@ -9470,13 +9491,13 @@
         <v>1769727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9532,7 +9553,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9544,13 +9565,13 @@
         <v>9315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>630</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>620</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -9559,13 +9580,13 @@
         <v>7548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>631</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -9574,13 +9595,13 @@
         <v>16863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>546</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9595,13 +9616,13 @@
         <v>5670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>621</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>305</v>
+        <v>632</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -9610,13 +9631,13 @@
         <v>10222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>476</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -9625,13 +9646,13 @@
         <v>15892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>623</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,13 +9667,13 @@
         <v>45273</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -9661,13 +9682,13 @@
         <v>58910</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="M24" s="7">
         <v>114</v>
@@ -9676,13 +9697,13 @@
         <v>104183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>629</v>
+        <v>249</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9697,13 +9718,13 @@
         <v>120862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="H25" s="7">
         <v>158</v>
@@ -9712,13 +9733,13 @@
         <v>115921</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="M25" s="7">
         <v>267</v>
@@ -9727,13 +9748,13 @@
         <v>236783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9748,13 +9769,13 @@
         <v>547651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="H26" s="7">
         <v>789</v>
@@ -9763,13 +9784,13 @@
         <v>681771</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="M26" s="7">
         <v>1304</v>
@@ -9778,13 +9799,13 @@
         <v>1229421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9840,7 +9861,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9852,13 +9873,13 @@
         <v>16740</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>650</v>
+        <v>218</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>344</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -9867,13 +9888,13 @@
         <v>25250</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>651</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -9882,13 +9903,13 @@
         <v>41990</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>653</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>91</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9903,13 +9924,13 @@
         <v>3955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>661</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>329</v>
+        <v>662</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -9918,13 +9939,13 @@
         <v>25957</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>405</v>
+        <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -9933,13 +9954,13 @@
         <v>29912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>664</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>656</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9954,13 +9975,13 @@
         <v>39744</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>442</v>
+        <v>665</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>667</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -9969,13 +9990,13 @@
         <v>48607</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="M30" s="7">
         <v>101</v>
@@ -9984,13 +10005,13 @@
         <v>88351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10005,13 +10026,13 @@
         <v>97463</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>664</v>
+        <v>157</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -10020,13 +10041,13 @@
         <v>116900</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="M31" s="7">
         <v>270</v>
@@ -10035,13 +10056,13 @@
         <v>214362</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10056,13 +10077,13 @@
         <v>807502</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>681</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="H32" s="7">
         <v>1286</v>
@@ -10071,13 +10092,13 @@
         <v>932803</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>676</v>
+        <v>600</v>
       </c>
       <c r="M32" s="7">
         <v>2128</v>
@@ -10086,13 +10107,13 @@
         <v>1740304</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>677</v>
+        <v>271</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>679</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10160,13 +10181,13 @@
         <v>38110</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>526</v>
+        <v>687</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>23</v>
+        <v>417</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>451</v>
+        <v>33</v>
       </c>
       <c r="H34" s="7">
         <v>69</v>
@@ -10175,13 +10196,13 @@
         <v>54260</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>110</v>
+        <v>542</v>
       </c>
       <c r="M34" s="7">
         <v>105</v>
@@ -10190,13 +10211,13 @@
         <v>92370</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>584</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,13 +10232,13 @@
         <v>21693</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>63</v>
@@ -10226,13 +10247,13 @@
         <v>59844</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>601</v>
+        <v>78</v>
       </c>
       <c r="M35" s="7">
         <v>90</v>
@@ -10241,13 +10262,13 @@
         <v>81537</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>526</v>
+        <v>687</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>680</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,13 +10283,13 @@
         <v>138065</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H36" s="7">
         <v>234</v>
@@ -10277,13 +10298,13 @@
         <v>166989</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="M36" s="7">
         <v>367</v>
@@ -10292,13 +10313,13 @@
         <v>305054</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10313,13 +10334,13 @@
         <v>370312</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="H37" s="7">
         <v>651</v>
@@ -10328,13 +10349,13 @@
         <v>424493</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="M37" s="7">
         <v>1030</v>
@@ -10343,13 +10364,13 @@
         <v>794806</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>691</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10364,13 +10385,13 @@
         <v>2817048</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="H38" s="7">
         <v>4344</v>
@@ -10379,13 +10400,13 @@
         <v>3100261</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>167</v>
+        <v>705</v>
       </c>
       <c r="M38" s="7">
         <v>7145</v>
@@ -10394,13 +10415,13 @@
         <v>5917308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>677</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10456,7 +10477,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
